--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,11 +709,16 @@
           <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4hsPjQBF</t>
+          <t>ve5Ok7BM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -723,170 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Balestier Khalsa</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9</v>
       </c>
-      <c r="H2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>34</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="Z2" t="n">
         <v>19</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="T2" t="n">
-        <v>8</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W2" t="n">
-        <v>51</v>
-      </c>
-      <c r="X2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>101</v>
-      </c>
       <c r="AA2" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF2" t="n">
         <v>41</v>
       </c>
-      <c r="AC2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>29</v>
-      </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>67</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="BA2" t="n">
         <v>81</v>
       </c>
-      <c r="AT2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>17</v>
-      </c>
       <c r="BB2" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>276</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
@@ -882,7 +882,7 @@
         <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -596,39 +596,39 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
@@ -656,52 +656,52 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-0_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1_HT</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2_HT</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-2_HT</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0_HT</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1_HT</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2_HT</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
@@ -825,25 +825,25 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="n">
         <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -861,31 +861,31 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA2" t="n">
         <v>151</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ve5Ok7BM</t>
+          <t>4hsPjQBF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,172 +728,354 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Tanjong Pagar</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Balestier Khalsa</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>1.17</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>34</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.06</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>10</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.29</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="X2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="n">
         <v>10</v>
       </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AT2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AU2" t="n">
         <v>26</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>51</v>
       </c>
       <c r="AV2" t="n">
         <v>5.5</v>
       </c>
       <c r="AW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ve5Ok7BM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
         <v>19</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
         <v>26</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
         <v>51</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AS3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>81</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA3" t="n">
         <v>151</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB3" t="n">
         <v>151</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC3" t="n">
         <v>276</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD3" t="n">
         <v>301</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,39 +596,39 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
@@ -656,52 +656,52 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-2_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-0_HT</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1_HT</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2_HT</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2_HT</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4hsPjQBF</t>
+          <t>6BxQEhhJ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,170 +728,170 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Balestier Khalsa</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.17</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
         <v>7</v>
       </c>
-      <c r="K2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>34</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>23</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.07</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.06</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>10</v>
       </c>
-      <c r="U2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>67</v>
-      </c>
-      <c r="X2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>41</v>
-      </c>
       <c r="Z2" t="n">
-        <v>101</v>
+        <v>7.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="n">
         <v>34</v>
       </c>
-      <c r="AD2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>21</v>
       </c>
-      <c r="AF2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM2" t="n">
+      <c r="AR2" t="n">
         <v>51</v>
       </c>
-      <c r="AN2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY2" t="n">
         <v>67</v>
       </c>
-      <c r="AS2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>10</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="BA2" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BB2" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
         <v>51</v>
@@ -900,182 +900,546 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>b7I8pNte</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FC Botosani</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>U. Cluj</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4hsPjQBF</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tanjong Pagar</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Balestier Khalsa</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>34</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R4" t="n">
+        <v>9</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>67</v>
+      </c>
+      <c r="X4" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>ve5Ok7BM</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>28/10/2024</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Basaksehir</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Eyupspor</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G5" t="n">
         <v>2.05</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H5" t="n">
         <v>3.3</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I5" t="n">
         <v>3.6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J5" t="n">
         <v>2.75</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K5" t="n">
         <v>2.2</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L5" t="n">
         <v>4</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
         <v>10</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
         <v>2.75</v>
       </c>
-      <c r="U3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="AU5" t="n">
         <v>8</v>
       </c>
-      <c r="X3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX5" t="n">
         <v>19</v>
       </c>
-      <c r="AA3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AY5" t="n">
         <v>26</v>
       </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AZ5" t="n">
         <v>51</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="BA5" t="n">
         <v>81</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB5" t="n">
         <v>151</v>
       </c>
-      <c r="BB3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC3" t="n">
+      <c r="BC5" t="n">
         <v>276</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD5" t="n">
         <v>301</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>b7I8pNte</t>
+          <t>pbRMNv36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>10.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>1.19</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>8.25</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2.77</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>18.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>5.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>2.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.19</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>4.15</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>30</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>8.25</v>
       </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AQ3" t="n">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="AR3" t="n">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>3.9</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>4.9</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>10.75</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4hsPjQBF</t>
+          <t>b7I8pNte</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Balestier Khalsa</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.17</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
         <v>7</v>
       </c>
-      <c r="K4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
         <v>34</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="R4" t="n">
-        <v>9</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="T4" t="n">
-        <v>10</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>67</v>
-      </c>
-      <c r="X4" t="n">
-        <v>81</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>51</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="n">
         <v>34</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>81</v>
       </c>
       <c r="AR4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
         <v>67</v>
       </c>
-      <c r="AS4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>26</v>
-      </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
         <v>51</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1308,7 +1308,7 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1329,22 +1329,22 @@
         <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1359,7 +1359,7 @@
         <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1371,28 +1371,28 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1407,13 +1407,13 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -777,16 +777,16 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>3</v>
@@ -798,13 +798,13 @@
         <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -816,7 +816,7 @@
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
         <v>34</v>
@@ -828,7 +828,7 @@
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>51</v>
@@ -843,10 +843,10 @@
         <v>126</v>
       </c>
       <c r="AM2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AO2" t="n">
         <v>6.5</v>
@@ -855,7 +855,7 @@
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -864,13 +864,13 @@
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>13</v>
       </c>
       <c r="AV2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW2" t="n">
         <v>11</v>
@@ -971,10 +971,10 @@
         <v>4.15</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V3" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="W3" t="n">
         <v>30</v>
@@ -1441,6 +1441,370 @@
       </c>
       <c r="BD5" t="n">
         <v>301</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>OK8mlfzI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>23</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W6" t="n">
+        <v>13</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>xQiOD6C7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Erokspor</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -765,10 +765,10 @@
         <v>11</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -795,16 +795,16 @@
         <v>1.36</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
         <v>9.5</v>
@@ -828,13 +828,13 @@
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>51</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
         <v>201</v>
@@ -843,10 +843,10 @@
         <v>126</v>
       </c>
       <c r="AM2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AO2" t="n">
         <v>6.5</v>
@@ -870,7 +870,7 @@
         <v>13</v>
       </c>
       <c r="AV2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW2" t="n">
         <v>11</v>
@@ -953,7 +953,7 @@
         <v>18.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P3" t="n">
         <v>5.6</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1308,7 +1308,7 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1335,16 +1335,16 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1371,7 +1371,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
         <v>12</v>
@@ -1380,19 +1380,19 @@
         <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1437,7 +1437,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="BD5" t="n">
         <v>301</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.25</v>
@@ -1493,10 +1493,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O6" t="n">
         <v>1.11</v>
@@ -1544,10 +1544,10 @@
         <v>23</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>29</v>
@@ -1556,13 +1556,13 @@
         <v>81</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
@@ -1571,10 +1571,10 @@
         <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -798,13 +798,13 @@
         <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -828,13 +828,13 @@
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>51</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
         <v>201</v>
@@ -846,7 +846,7 @@
         <v>126</v>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AO2" t="n">
         <v>6.5</v>
@@ -870,7 +870,7 @@
         <v>13</v>
       </c>
       <c r="AV2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW2" t="n">
         <v>11</v>
@@ -947,13 +947,13 @@
         <v>1.55</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
         <v>18.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P3" t="n">
         <v>5.6</v>
@@ -971,10 +971,10 @@
         <v>4.15</v>
       </c>
       <c r="U3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W3" t="n">
         <v>30</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>b7I8pNte</t>
+          <t>tbdUsFKa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T4" t="n">
         <v>4.33</v>
       </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>1.5</v>
       </c>
-      <c r="P4" t="n">
+      <c r="V4" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="n">
         <v>17</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AC4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP4" t="n">
         <v>13</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AQ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
         <v>41</v>
       </c>
-      <c r="AA4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AW4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>67</v>
       </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
+      <c r="BA4" t="n">
         <v>67</v>
       </c>
-      <c r="AW4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
-      </c>
       <c r="BB4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC4" t="n">
         <v>251</v>
       </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ve5Ok7BM</t>
+          <t>E5ugXK3D</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,86 +1274,86 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.2</v>
       </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>26</v>
@@ -1362,91 +1362,91 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
         <v>41</v>
       </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
         <v>19</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AQ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR5" t="n">
         <v>41</v>
       </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD5" t="n">
         <v>151</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OK8mlfzI</t>
+          <t>6FrwUX66</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Pruszkow</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>21</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="AE6" t="n">
         <v>13</v>
       </c>
-      <c r="X6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
         <v>23</v>
       </c>
-      <c r="AD6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AM6" t="n">
         <v>29</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>26</v>
       </c>
       <c r="AN6" t="n">
         <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
         <v>23</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xQiOD6C7</t>
+          <t>fXd6EqHd</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,172 +1638,1264 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J7" t="n">
         <v>4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.38</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
         <v>15</v>
       </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AY7" t="n">
         <v>29</v>
       </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
+      <c r="AZ7" t="n">
         <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>67</v>
       </c>
       <c r="BA7" t="n">
         <v>81</v>
       </c>
       <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>b7I8pNte</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FC Botosani</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>U. Cluj</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>je2YYz6p</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vasteras SK</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD9" t="n">
         <v>151</v>
       </c>
-      <c r="BC7" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>zZCRIqKc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Oddevold</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Skovde AIK</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
         <v>126</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="AT10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ve5Ok7BM</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>OK8mlfzI</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>21</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W12" t="n">
+        <v>13</v>
+      </c>
+      <c r="X12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>xQiOD6C7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Erokspor</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,16 +765,16 @@
         <v>11</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>2.2</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pbRMNv36</t>
+          <t>OSlDwjIG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10.75</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.19</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>8.25</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.77</v>
+        <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>1.55</v>
+        <v>2.63</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>2.73</v>
+        <v>2.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>1.86</v>
+        <v>2.38</v>
       </c>
       <c r="W3" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH3" t="n">
         <v>11</v>
       </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AI3" t="n">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.9</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>10.75</v>
+        <v>34</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="BB3" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tbdUsFKa</t>
+          <t>Y5lMvPwo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,174 +1097,174 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J4" t="n">
         <v>4.75</v>
       </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="K4" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>2.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W4" t="n">
+        <v>13</v>
+      </c>
+      <c r="X4" t="n">
         <v>23</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12</v>
-      </c>
-      <c r="X4" t="n">
-        <v>10</v>
-      </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
         <v>11</v>
       </c>
-      <c r="AB4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>26</v>
-      </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR4" t="n">
         <v>101</v>
       </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>29</v>
       </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>67</v>
-      </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E5ugXK3D</t>
+          <t>8O4sn7oB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,132 +1279,132 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P5" t="n">
         <v>3.75</v>
       </c>
-      <c r="I5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
         <v>17</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
         <v>12</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>13</v>
       </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
         <v>11</v>
       </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
       <c r="AI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
         <v>29</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>41</v>
       </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>26</v>
-      </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>126</v>
@@ -1413,40 +1413,40 @@
         <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6FrwUX66</t>
+          <t>pbRMNv36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>10.75</v>
       </c>
       <c r="H6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W6" t="n">
+        <v>30</v>
+      </c>
+      <c r="X6" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>450</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>350</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW6" t="n">
         <v>3.25</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>4.9</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>10.75</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fXd6EqHd</t>
+          <t>tbdUsFKa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,174 +1643,174 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>23</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R7" t="n">
         <v>3.1</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="S7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
         <v>4</v>
       </c>
-      <c r="K7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR7" t="n">
         <v>34</v>
       </c>
-      <c r="AA7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AS7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
         <v>41</v>
       </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AW7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>67</v>
       </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ7" t="n">
+      <c r="BA7" t="n">
         <v>67</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="BB7" t="n">
         <v>101</v>
       </c>
-      <c r="AS7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>251</v>
       </c>
-      <c r="BC7" t="n">
-        <v>81</v>
-      </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>b7I8pNte</t>
+          <t>E5ugXK3D</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" t="n">
         <v>8.5</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>17</v>
       </c>
-      <c r="Y8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
         <v>41</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>21</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY8" t="n">
         <v>34</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="AZ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
         <v>351</v>
       </c>
-      <c r="AT8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>je2YYz6p</t>
+          <t>6FrwUX66</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,174 +2007,174 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vasteras SK</t>
+          <t>Pruszkow</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.2</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
         <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>13</v>
       </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
         <v>15</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
         <v>29</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>41</v>
       </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP9" t="n">
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>17</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AY9" t="n">
         <v>23</v>
       </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
         <v>81</v>
       </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>501</v>
-      </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>zZCRIqKc</t>
+          <t>fXd6EqHd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,174 +2189,174 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oddevold</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skovde AIK</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
         <v>6.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>15</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AI10" t="n">
         <v>10</v>
       </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>8</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
         <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ve5Ok7BM</t>
+          <t>b7I8pNte</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.1</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>1.67</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.1</v>
       </c>
       <c r="W11" t="n">
         <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI11" t="n">
         <v>9</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
         <v>19</v>
       </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AL11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX11" t="n">
         <v>13</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OK8mlfzI</t>
+          <t>je2YYz6p</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,107 +2548,107 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Vasteras SK</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.75</v>
       </c>
-      <c r="H12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>21</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.4</v>
-      </c>
       <c r="V12" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>12</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>17</v>
       </c>
       <c r="AA12" t="n">
         <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>29</v>
@@ -2657,70 +2657,70 @@
         <v>15</v>
       </c>
       <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
         <v>41</v>
       </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
         <v>23</v>
       </c>
       <c r="AR12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
         <v>7</v>
       </c>
-      <c r="AV12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>xQiOD6C7</t>
+          <t>Uo1xYfLj</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,134 +2730,134 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P13" t="n">
         <v>4.33</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>13</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
         <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM13" t="n">
         <v>41</v>
       </c>
-      <c r="AG13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>29</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2866,36 +2866,764 @@
         <v>101</v>
       </c>
       <c r="AT13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>zZCRIqKc</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Oddevold</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Skovde AIK</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T14" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="U14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ve5Ok7BM</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OK8mlfzI</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N16" t="n">
+        <v>21</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W16" t="n">
+        <v>13</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>xQiOD6C7</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Erokspor</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
         <v>6</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX17" t="n">
         <v>21</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY17" t="n">
         <v>26</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="AZ17" t="n">
         <v>67</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BA17" t="n">
         <v>81</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BB17" t="n">
         <v>151</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BC17" t="n">
         <v>126</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BD17" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
         <v>1.83</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -771,16 +771,16 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,37 +789,37 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X2" t="n">
         <v>4.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
         <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="n">
         <v>151</v>
@@ -828,7 +828,7 @@
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>51</v>
@@ -837,19 +837,19 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AM2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN2" t="n">
         <v>2.88</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -861,7 +861,7 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
         <v>2.63</v>
@@ -873,10 +873,10 @@
         <v>126</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY2" t="n">
         <v>67</v>
@@ -950,22 +950,22 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
         <v>3.5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -1323,10 +1323,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1344,10 +1344,10 @@
         <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
         <v>21</v>
@@ -1356,10 +1356,10 @@
         <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1380,7 +1380,7 @@
         <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1475,25 +1475,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="J6" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="L6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
         <v>18.5</v>
@@ -1517,28 +1517,28 @@
         <v>4.15</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X6" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Y6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="n">
         <v>250</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC6" t="n">
         <v>19</v>
@@ -1547,25 +1547,25 @@
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG6" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>8.25</v>
       </c>
-      <c r="AI6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8</v>
-      </c>
       <c r="AK6" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AL6" t="n">
         <v>8.5</v>
@@ -1574,7 +1574,7 @@
         <v>20</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AO6" t="n">
         <v>60</v>
@@ -1592,13 +1592,13 @@
         <v>500</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="n">
         <v>3.25</v>
@@ -1610,10 +1610,10 @@
         <v>13.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB6" t="n">
         <v>150</v>
@@ -1681,7 +1681,7 @@
         <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P7" t="n">
         <v>6.5</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2051,10 +2051,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2072,19 +2072,19 @@
         <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
         <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -2102,7 +2102,7 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2111,7 +2111,7 @@
         <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
         <v>23</v>
@@ -2120,10 +2120,10 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
@@ -2409,10 +2409,10 @@
         <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
         <v>2.5</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>je2YYz6p</t>
+          <t>48PanqCr</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vasteras SK</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.2</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V12" t="n">
         <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>41</v>
       </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>81</v>
-      </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Uo1xYfLj</t>
+          <t>je2YYz6p</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,124 +2740,124 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Vasteras SK</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
         <v>23</v>
       </c>
       <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>15</v>
       </c>
-      <c r="AD13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>19</v>
-      </c>
       <c r="AF13" t="n">
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="n">
         <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2866,31 +2866,31 @@
         <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AY13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
         <v>501</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>zZCRIqKc</t>
+          <t>Uo1xYfLj</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,38 +2912,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oddevold</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skovde AIK</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
         <v>6.5</v>
@@ -2955,31 +2955,31 @@
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
         <v>7</v>
@@ -2988,19 +2988,19 @@
         <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
         <v>19</v>
@@ -3009,22 +3009,22 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
@@ -3039,16 +3039,16 @@
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
         <v>8.5</v>
@@ -3075,16 +3075,16 @@
         <v>251</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ve5Ok7BM</t>
+          <t>zZCRIqKc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,173 +3094,173 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Oddevold</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Skovde AIK</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y15" t="n">
         <v>8.5</v>
       </c>
-      <c r="X15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
         <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="n">
         <v>41</v>
       </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP15" t="n">
         <v>17</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AQ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX15" t="n">
         <v>34</v>
       </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM15" t="n">
+      <c r="AY15" t="n">
         <v>34</v>
       </c>
-      <c r="AN15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
@@ -807,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -822,13 +822,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AG2" t="n">
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>51</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
@@ -944,7 +944,7 @@
         <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -965,7 +965,7 @@
         <v>2.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
         <v>3.5</v>
@@ -977,10 +977,10 @@
         <v>2.38</v>
       </c>
       <c r="W3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -1007,7 +1007,7 @@
         <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -1019,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
@@ -1055,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX3" t="n">
         <v>11</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1159,13 +1159,13 @@
         <v>1.91</v>
       </c>
       <c r="W4" t="n">
+        <v>12</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
         <v>13</v>
-      </c>
-      <c r="X4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>15</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
@@ -1189,13 +1189,13 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
         <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.5</v>
@@ -1219,10 +1219,10 @@
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR4" t="n">
         <v>81</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>101</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
@@ -1237,7 +1237,7 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
         <v>9.5</v>
@@ -1502,13 +1502,13 @@
         <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R6" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="S6" t="n">
         <v>1.19</v>
@@ -1517,10 +1517,10 @@
         <v>4.15</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W6" t="n">
         <v>27</v>
@@ -1681,16 +1681,16 @@
         <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P7" t="n">
         <v>6.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R7" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S7" t="n">
         <v>1.2</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1869,10 +1869,10 @@
         <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.25</v>
@@ -1887,7 +1887,7 @@
         <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
         <v>7.5</v>
@@ -1896,7 +1896,7 @@
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
@@ -1911,7 +1911,7 @@
         <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1926,10 +1926,10 @@
         <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
@@ -1938,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
         <v>8</v>
@@ -1947,7 +1947,7 @@
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1977,10 +1977,10 @@
         <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>351</v>
@@ -2051,10 +2051,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.1</v>
@@ -2251,10 +2251,10 @@
         <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>12</v>
@@ -2287,7 +2287,7 @@
         <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>10</v>
@@ -2457,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
@@ -2472,7 +2472,7 @@
         <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK11" t="n">
         <v>19</v>
@@ -2517,7 +2517,7 @@
         <v>13</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>41</v>
@@ -2591,16 +2591,16 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>je2YYz6p</t>
+          <t>nqew2rm2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vasteras SK</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.2</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>13</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="n">
         <v>201</v>
       </c>
       <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
         <v>15</v>
       </c>
-      <c r="AI13" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY13" t="n">
         <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
       </c>
       <c r="AZ13" t="n">
         <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC13" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Uo1xYfLj</t>
+          <t>je2YYz6p</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,157 +2922,157 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Vasteras SK</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
         <v>23</v>
       </c>
       <c r="AC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>15</v>
       </c>
-      <c r="AD14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
       <c r="AF14" t="n">
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
       </c>
       <c r="AS14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA14" t="n">
         <v>101</v>
       </c>
-      <c r="AT14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>126</v>
-      </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
         <v>501</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>zZCRIqKc</t>
+          <t>Uo1xYfLj</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,74 +3094,74 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Oddevold</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skovde AIK</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>7</v>
@@ -3170,19 +3170,19 @@
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
@@ -3194,19 +3194,19 @@
         <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
         <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
@@ -3215,13 +3215,13 @@
         <v>3.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -3230,7 +3230,7 @@
         <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU15" t="n">
         <v>8.5</v>
@@ -3239,7 +3239,7 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX15" t="n">
         <v>34</v>
@@ -3251,22 +3251,22 @@
         <v>126</v>
       </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB15" t="n">
         <v>251</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OK8mlfzI</t>
+          <t>zZCRIqKc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Oddevold</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Skovde AIK</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>6.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
         <v>4</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>21</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P16" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Q16" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>2.88</v>
+        <v>2.08</v>
       </c>
       <c r="S16" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="V16" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AA16" t="n">
         <v>12</v>
       </c>
       <c r="AB16" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
         <v>8.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>21</v>
       </c>
-      <c r="AI16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="n">
+      <c r="AR16" t="n">
         <v>41</v>
       </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX16" t="n">
         <v>34</v>
       </c>
-      <c r="AS16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV16" t="n">
+      <c r="AY16" t="n">
         <v>34</v>
       </c>
-      <c r="AW16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>xQiOD6C7</t>
+          <t>OK8mlfzI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3463,167 +3463,349 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
+        <v>21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W17" t="n">
         <v>13</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD17" t="n">
         <v>8.5</v>
       </c>
-      <c r="X17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>15</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13</v>
       </c>
       <c r="AK17" t="n">
         <v>41</v>
       </c>
       <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>xQiOD6C7</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Erokspor</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
         <v>29</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM18" t="n">
         <v>34</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN18" t="n">
         <v>4</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO18" t="n">
         <v>9.5</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP18" t="n">
         <v>19</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ18" t="n">
         <v>29</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR18" t="n">
         <v>41</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS18" t="n">
         <v>101</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT18" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU18" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
         <v>6</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AX18" t="n">
         <v>21</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AY18" t="n">
         <v>26</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="AZ18" t="n">
         <v>67</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BA18" t="n">
         <v>81</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BB18" t="n">
         <v>151</v>
       </c>
-      <c r="BC17" t="n">
+      <c r="BC18" t="n">
         <v>126</v>
       </c>
-      <c r="BD17" t="n">
+      <c r="BD18" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -771,16 +771,16 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,25 +789,25 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W2" t="n">
         <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -816,7 +816,7 @@
         <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>41</v>
@@ -831,7 +831,7 @@
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -852,10 +852,10 @@
         <v>6</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -867,19 +867,19 @@
         <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV2" t="n">
         <v>126</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>67</v>
       </c>
       <c r="AY2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AZ2" t="n">
         <v>351</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1353,7 +1353,7 @@
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>26</v>
@@ -1377,13 +1377,13 @@
         <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>23</v>
@@ -1392,10 +1392,10 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1475,40 +1475,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="R6" t="n">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="S6" t="n">
         <v>1.19</v>
@@ -1517,73 +1517,73 @@
         <v>4.15</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="W6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
         <v>250</v>
       </c>
       <c r="AA6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AE6" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AJ6" t="n">
         <v>8.25</v>
       </c>
       <c r="AK6" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AL6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AR6" t="n">
         <v>350</v>
@@ -1592,7 +1592,7 @@
         <v>500</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1604,16 +1604,16 @@
         <v>3.25</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AY6" t="n">
         <v>13.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB6" t="n">
         <v>150</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
@@ -2078,7 +2078,7 @@
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>19</v>
@@ -2087,13 +2087,13 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
@@ -2409,10 +2409,10 @@
         <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>2.5</v>
@@ -2591,16 +2591,16 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2749,46 +2749,46 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>1.83</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U13" t="n">
         <v>2.25</v>
@@ -2797,19 +2797,19 @@
         <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
         <v>41</v>
@@ -2818,7 +2818,7 @@
         <v>5.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2833,13 +2833,13 @@
         <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
         <v>34</v>
@@ -2851,7 +2851,7 @@
         <v>4.33</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP13" t="n">
         <v>34</v>
@@ -2866,7 +2866,7 @@
         <v>351</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU13" t="n">
         <v>9.5</v>
@@ -2875,16 +2875,16 @@
         <v>81</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX13" t="n">
         <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA13" t="n">
         <v>126</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J14" t="n">
         <v>2.2</v>
@@ -2961,10 +2961,10 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>
@@ -2991,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB14" t="n">
         <v>23</v>
@@ -3039,7 +3039,7 @@
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3528,7 +3528,7 @@
         <v>13</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
@@ -3561,7 +3561,7 @@
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
@@ -3573,19 +3573,19 @@
         <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
         <v>34</v>
@@ -3609,7 +3609,7 @@
         <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ17" t="n">
         <v>51</v>
@@ -3618,10 +3618,10 @@
         <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD17" t="n">
         <v>301</v>
@@ -3659,58 +3659,58 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X18" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>9.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -3719,67 +3719,67 @@
         <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
         <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
         <v>9.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3788,25 +3788,25 @@
         <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
         <v>126</v>
       </c>
       <c r="BD18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6BxQEhhJ</t>
+          <t>E595Qvn9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Ath Bilbao</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.25</v>
       </c>
-      <c r="L2" t="n">
-        <v>13</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.67</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.3</v>
-      </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
         <v>41</v>
       </c>
-      <c r="AF2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>151</v>
-      </c>
       <c r="AN2" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB2" t="n">
         <v>351</v>
       </c>
-      <c r="AT2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV2" t="n">
+      <c r="BC2" t="n">
         <v>126</v>
       </c>
-      <c r="AW2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OSlDwjIG</t>
+          <t>6BxQEhhJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>1.27</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="K3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>17</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W3" t="n">
-        <v>15</v>
-      </c>
-      <c r="X3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW3" t="n">
         <v>12</v>
       </c>
-      <c r="Z3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AX3" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="AZ3" t="n">
-        <v>34</v>
+        <v>351</v>
       </c>
       <c r="BA3" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Y5lMvPwo</t>
+          <t>OSlDwjIG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,174 +1097,174 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.6</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.5</v>
-      </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="n">
         <v>34</v>
       </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AG4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH4" t="n">
         <v>11</v>
       </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>9</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8O4sn7oB</t>
+          <t>lrv5pa42</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,110 +1274,110 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.25</v>
       </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
         <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
         <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
@@ -1389,52 +1389,52 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
         <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX5" t="n">
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pbRMNv36</t>
+          <t>d6KN1wQE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>10.75</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.18</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>8.5</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>5.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>2.73</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>4.15</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
         <v>29</v>
       </c>
-      <c r="X6" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
         <v>21</v>
       </c>
-      <c r="AF6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>50</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>500</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.75</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tbdUsFKa</t>
+          <t>Y5lMvPwo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,174 +1643,174 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>1.83</v>
       </c>
       <c r="J7" t="n">
-        <v>1.95</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
       </c>
       <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>34</v>
       </c>
-      <c r="AG7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>67</v>
-      </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E5ugXK3D</t>
+          <t>8O4sn7oB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,81 +1825,81 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.1</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>17</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1908,91 +1908,91 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
         <v>15</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
         <v>29</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>67</v>
-      </c>
       <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>41</v>
       </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>23</v>
-      </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6FrwUX66</t>
+          <t>pbRMNv36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>5.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>1.19</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.82</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>2.61</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>3.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>600</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>5.7</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>6.1</v>
       </c>
       <c r="AL9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM9" t="n">
         <v>23</v>
       </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>11.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>3.85</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>4.8</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>10.25</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BC9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fXd6EqHd</t>
+          <t>tbdUsFKa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,174 +2189,174 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="I10" t="n">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>6.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>2.88</v>
       </c>
       <c r="S10" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>4.33</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
+        <v>12</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
         <v>7.5</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AP10" t="n">
         <v>13</v>
       </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AQ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR10" t="n">
         <v>34</v>
       </c>
-      <c r="AA10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AS10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
         <v>41</v>
       </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AW10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>67</v>
       </c>
-      <c r="AG10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
+      <c r="BA10" t="n">
         <v>67</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="BB10" t="n">
         <v>101</v>
       </c>
-      <c r="AS10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
+      <c r="BC10" t="n">
         <v>251</v>
       </c>
-      <c r="BC10" t="n">
-        <v>81</v>
-      </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>b7I8pNte</t>
+          <t>E5ugXK3D</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>4.33</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W11" t="n">
         <v>7</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y11" t="n">
         <v>8.5</v>
       </c>
-      <c r="X11" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA11" t="n">
         <v>13</v>
       </c>
-      <c r="Z11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>34</v>
-      </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
       </c>
       <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
         <v>67</v>
       </c>
-      <c r="AG11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>19</v>
-      </c>
       <c r="AL11" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY11" t="n">
         <v>34</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AZ11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA11" t="n">
         <v>126</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>81</v>
       </c>
       <c r="BB11" t="n">
         <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>48PanqCr</t>
+          <t>6FrwUX66</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,41 +2548,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>Pruszkow</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2615,25 +2615,25 @@
         <v>2</v>
       </c>
       <c r="W12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
         <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2648,37 +2648,37 @@
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>11</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>9</v>
-      </c>
       <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP12" t="n">
         <v>21</v>
       </c>
-      <c r="AL12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>151</v>
@@ -2693,34 +2693,34 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
         <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>nqew2rm2</t>
+          <t>WQFk4C6e</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W13" t="n">
+        <v>19</v>
+      </c>
+      <c r="X13" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
         <v>3.1</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="AX13" t="n">
         <v>6</v>
       </c>
-      <c r="X13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA13" t="n">
         <v>41</v>
       </c>
-      <c r="AC13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA13" t="n">
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
         <v>126</v>
       </c>
-      <c r="BB13" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
-      </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>je2YYz6p</t>
+          <t>fXd6EqHd</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2917,174 +2917,174 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vasteras SK</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="I14" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.2</v>
-      </c>
       <c r="K14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.38</v>
       </c>
-      <c r="L14" t="n">
-        <v>5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>13</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
         <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
         <v>23</v>
       </c>
-      <c r="AC14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
       <c r="AL14" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AR14" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
         <v>29</v>
       </c>
       <c r="AZ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA14" t="n">
         <v>81</v>
       </c>
-      <c r="BA14" t="n">
-        <v>101</v>
-      </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC14" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Uo1xYfLj</t>
+          <t>b7I8pNte</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
         <v>7</v>
       </c>
-      <c r="J15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="O15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P15" t="n">
         <v>2.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="Q15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
         <v>6.5</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>15</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AK15" t="n">
         <v>19</v>
       </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
         <v>21</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>51</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="AR15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>41</v>
       </c>
-      <c r="AS15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>126</v>
-      </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
         <v>251</v>
       </c>
       <c r="BC15" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>zZCRIqKc</t>
+          <t>48PanqCr</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Oddevold</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skovde AIK</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>10</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
         <v>6.5</v>
       </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>13</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7</v>
-      </c>
-      <c r="X16" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX16" t="n">
         <v>12</v>
       </c>
-      <c r="AB16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL16" t="n">
+      <c r="AY16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>41</v>
       </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>126</v>
-      </c>
       <c r="BA16" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OK8mlfzI</t>
+          <t>nqew2rm2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L17" t="n">
         <v>4</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="N17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>21</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="AF17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI17" t="n">
         <v>13</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AJ17" t="n">
         <v>13</v>
       </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
         <v>17</v>
       </c>
-      <c r="AA17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV17" t="n">
         <v>81</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AW17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX17" t="n">
         <v>21</v>
       </c>
-      <c r="AI17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AY17" t="n">
         <v>34</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AZ17" t="n">
         <v>67</v>
       </c>
-      <c r="AT17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>51</v>
-      </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC17" t="n">
         <v>81</v>
       </c>
-      <c r="BC17" t="n">
-        <v>201</v>
-      </c>
       <c r="BD17" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>xQiOD6C7</t>
+          <t>je2YYz6p</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,95 +3640,95 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Vasteras SK</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3737,46 +3737,46 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
         <v>41</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
         <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3785,16 +3785,16 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA18" t="n">
         <v>101</v>
@@ -3803,9 +3803,737 @@
         <v>201</v>
       </c>
       <c r="BC18" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Uo1xYfLj</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8</v>
+      </c>
+      <c r="X19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>126</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BA19" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>zZCRIqKc</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Oddevold</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Skovde AIK</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>OK8mlfzI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>23</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W21" t="n">
+        <v>15</v>
+      </c>
+      <c r="X21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>xQiOD6C7</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Erokspor</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD22" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD22"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6BxQEhhJ</t>
+          <t>OSlDwjIG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.27</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W3" t="n">
         <v>15</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L3" t="n">
-        <v>13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="X3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>9</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AK3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="n">
         <v>15</v>
       </c>
-      <c r="AB3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AM3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV3" t="n">
         <v>41</v>
       </c>
-      <c r="AF3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AG3" t="n">
+      <c r="AW3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC3" t="n">
         <v>351</v>
       </c>
-      <c r="AH3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL3" t="n">
+      <c r="BD3" t="n">
         <v>151</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OSlDwjIG</t>
+          <t>lrv5pa42</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
       </c>
       <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP4" t="n">
         <v>26</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX4" t="n">
         <v>17</v>
       </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>11</v>
-      </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lrv5pa42</t>
+          <t>d6KN1wQE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,174 +1279,174 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.05</v>
       </c>
-      <c r="L5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
       <c r="Z5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
         <v>26</v>
       </c>
-      <c r="AA5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
       <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
         <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY5" t="n">
         <v>26</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>d6KN1wQE</t>
+          <t>Y5lMvPwo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1517,76 +1517,76 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
         <v>29</v>
       </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
@@ -1595,40 +1595,40 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY6" t="n">
         <v>19</v>
       </c>
-      <c r="AY6" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Y5lMvPwo</t>
+          <t>8O4sn7oB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,37 +1648,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1699,76 +1699,76 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
         <v>12</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>21</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>13</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AF7" t="n">
         <v>41</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
         <v>29</v>
       </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
-      </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
@@ -1777,28 +1777,28 @@
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8O4sn7oB</t>
+          <t>pbRMNv36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,167 +1820,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>11.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>5.7</v>
       </c>
       <c r="I8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="X8" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN8" t="n">
         <v>12</v>
       </c>
-      <c r="Y8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>400</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>10.25</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pbRMNv36</t>
+          <t>tbdUsFKa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>23</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
         <v>11</v>
       </c>
-      <c r="H9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="AB9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC9" t="n">
         <v>26</v>
       </c>
-      <c r="X9" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
         <v>29</v>
       </c>
-      <c r="Z9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>23</v>
       </c>
-      <c r="AN9" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>450</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>4.8</v>
-      </c>
       <c r="AY9" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>10.25</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tbdUsFKa</t>
+          <t>E5ugXK3D</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,165 +2189,165 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>23</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>12</v>
-      </c>
-      <c r="X10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY10" t="n">
         <v>34</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AZ10" t="n">
         <v>101</v>
       </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>67</v>
-      </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E5ugXK3D</t>
+          <t>fR1WTocL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,160 +2376,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11</v>
+      </c>
+      <c r="X11" t="n">
         <v>17</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7</v>
-      </c>
-      <c r="X11" t="n">
-        <v>7.5</v>
-      </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL11" t="n">
         <v>17</v>
       </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AM11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO11" t="n">
         <v>19</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AP11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>67</v>
       </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>23</v>
-      </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>34</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>101</v>
-      </c>
       <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC11" t="n">
         <v>126</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>351</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2764,13 +2764,13 @@
         <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
@@ -2791,10 +2791,10 @@
         <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
         <v>19</v>
@@ -2803,13 +2803,13 @@
         <v>41</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AA13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AB13" t="n">
         <v>67</v>
@@ -2848,7 +2848,7 @@
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
         <v>51</v>
@@ -2860,7 +2860,7 @@
         <v>251</v>
       </c>
       <c r="AR13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AS13" t="n">
         <v>501</v>
@@ -2869,7 +2869,7 @@
         <v>3.25</v>
       </c>
       <c r="AU13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
@@ -2881,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
         <v>17</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>b7I8pNte</t>
+          <t>48PanqCr</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,157 +3104,157 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
         <v>2.15</v>
       </c>
       <c r="J15" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
         <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
         <v>41</v>
       </c>
-      <c r="AA15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
         <v>17</v>
       </c>
-      <c r="AF15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL15" t="n">
+      <c r="AM15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY15" t="n">
         <v>21</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>26</v>
       </c>
       <c r="AZ15" t="n">
         <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>48PanqCr</t>
+          <t>nqew2rm2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q16" t="n">
         <v>3.1</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="R16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6</v>
+      </c>
+      <c r="X16" t="n">
         <v>11</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>10</v>
-      </c>
-      <c r="X16" t="n">
-        <v>17</v>
-      </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="n">
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
         <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
       </c>
       <c r="AR16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV16" t="n">
         <v>81</v>
       </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
       <c r="AW16" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nqew2rm2</t>
+          <t>je2YYz6p</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Vasteras SK</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>2.75</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="K17" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="L17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
         <v>4</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Q17" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
         <v>12</v>
       </c>
-      <c r="Z17" t="n">
-        <v>26</v>
-      </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
         <v>201</v>
       </c>
       <c r="AH17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
         <v>7</v>
       </c>
-      <c r="AI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AX17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>101</v>
       </c>
-      <c r="AS17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>67</v>
-      </c>
       <c r="BA17" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>je2YYz6p</t>
+          <t>Uo1xYfLj</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3650,157 +3650,157 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vasteras SK</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="K18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W18" t="n">
         <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB18" t="n">
         <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP18" t="n">
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
       </c>
       <c r="AS18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>126</v>
       </c>
-      <c r="AT18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>101</v>
-      </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC18" t="n">
         <v>501</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Uo1xYfLj</t>
+          <t>zZCRIqKc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,38 +3822,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Oddevold</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Skovde AIK</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="H19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
         <v>6.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L19" t="n">
         <v>6.5</v>
@@ -3865,34 +3865,34 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.8</v>
       </c>
-      <c r="V19" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
@@ -3901,16 +3901,16 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3919,28 +3919,28 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO19" t="n">
         <v>7</v>
@@ -3949,16 +3949,16 @@
         <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>
       </c>
       <c r="AS19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU19" t="n">
         <v>8.5</v>
@@ -3985,7 +3985,7 @@
         <v>251</v>
       </c>
       <c r="BC19" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zZCRIqKc</t>
+          <t>OK8mlfzI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oddevold</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skovde AIK</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
+        <v>23</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W20" t="n">
         <v>13</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W20" t="n">
-        <v>7</v>
-      </c>
       <c r="X20" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
         <v>12</v>
       </c>
       <c r="AB20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
         <v>26</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AN20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP20" t="n">
         <v>13</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>17</v>
       </c>
       <c r="AQ20" t="n">
         <v>21</v>
       </c>
       <c r="AR20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS20" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD20" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OK8mlfzI</t>
+          <t>xQiOD6C7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4191,349 +4191,167 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Erokspor</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W21" t="n">
         <v>7</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W21" t="n">
-        <v>15</v>
-      </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" t="n">
         <v>17</v>
       </c>
-      <c r="AA21" t="n">
-        <v>12</v>
-      </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH21" t="n">
         <v>11</v>
       </c>
-      <c r="AF21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH21" t="n">
+      <c r="AI21" t="n">
         <v>21</v>
       </c>
-      <c r="AI21" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>41</v>
       </c>
       <c r="AL21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY21" t="n">
         <v>29</v>
       </c>
-      <c r="AM21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BD21" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>xQiOD6C7</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Manisa FK</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Erokspor</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD22" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OSlDwjIG</t>
+          <t>faP58ueF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>17</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>15</v>
-      </c>
-      <c r="X3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
         <v>41</v>
       </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
         <v>26</v>
       </c>
-      <c r="AC3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG3" t="n">
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>101</v>
       </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>34</v>
-      </c>
       <c r="BA3" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
         <v>81</v>
       </c>
-      <c r="BC3" t="n">
-        <v>351</v>
-      </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lrv5pa42</t>
+          <t>OSlDwjIG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
         <v>3.25</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="n">
         <v>12</v>
       </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
       </c>
       <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>34</v>
       </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>51</v>
-      </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>d6KN1wQE</t>
+          <t>lrv5pa42</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,174 +1279,174 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.2</v>
       </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="R5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Y5lMvPwo</t>
+          <t>d6KN1wQE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.6</v>
       </c>
-      <c r="I6" t="n">
-        <v>1.83</v>
-      </c>
       <c r="J6" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1517,76 +1517,76 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>13</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AF6" t="n">
         <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
         <v>21</v>
       </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
@@ -1595,40 +1595,40 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD6" t="n">
         <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8O4sn7oB</t>
+          <t>Y5lMvPwo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,37 +1648,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1699,76 +1699,76 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
         <v>12</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>15</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
       <c r="AL7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM7" t="n">
         <v>23</v>
       </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
@@ -1783,22 +1783,22 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pbRMNv36</t>
+          <t>8O4sn7oB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,167 +1820,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>11.5</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>5.7</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>1.18</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W8" t="n">
         <v>9</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
         <v>3</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W8" t="n">
-        <v>28</v>
-      </c>
-      <c r="X8" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
         <v>17</v>
       </c>
-      <c r="AD8" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="AY8" t="n">
         <v>23</v>
       </c>
-      <c r="AN8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>400</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>14</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>10.25</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
         <v>4.75</v>
@@ -2030,13 +2030,13 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -2051,16 +2051,16 @@
         <v>6.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R9" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U9" t="n">
         <v>1.5</v>
@@ -2075,7 +2075,7 @@
         <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
         <v>13</v>
@@ -2090,7 +2090,7 @@
         <v>26</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2105,7 +2105,7 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
@@ -2129,7 +2129,7 @@
         <v>13</v>
       </c>
       <c r="AQ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>34</v>
@@ -2138,10 +2138,10 @@
         <v>67</v>
       </c>
       <c r="AT9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
@@ -2168,7 +2168,7 @@
         <v>251</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J10" t="n">
         <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S10" t="n">
         <v>1.25</v>
@@ -2263,7 +2263,7 @@
         <v>11</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
         <v>26</v>
@@ -2284,10 +2284,10 @@
         <v>251</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>19</v>
@@ -2305,7 +2305,7 @@
         <v>3.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
@@ -2320,7 +2320,7 @@
         <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2329,7 +2329,7 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX10" t="n">
         <v>29</v>
@@ -2415,10 +2415,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2758,10 +2758,10 @@
         <v>1.25</v>
       </c>
       <c r="J13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.8</v>
@@ -2779,16 +2779,16 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
         <v>2.25</v>
@@ -2797,16 +2797,16 @@
         <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X13" t="n">
         <v>41</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AA13" t="n">
         <v>67</v>
@@ -2833,13 +2833,13 @@
         <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL13" t="n">
         <v>12</v>
@@ -2848,25 +2848,25 @@
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AR13" t="n">
         <v>251</v>
       </c>
       <c r="AS13" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
         <v>10</v>
@@ -2875,7 +2875,7 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AX13" t="n">
         <v>6</v>
@@ -3313,10 +3313,10 @@
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.62</v>
@@ -3477,19 +3477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H17" t="n">
         <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
         <v>2.1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
@@ -3501,22 +3501,22 @@
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U17" t="n">
         <v>1.75</v>
@@ -3546,7 +3546,7 @@
         <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3591,10 +3591,10 @@
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
@@ -3606,7 +3606,7 @@
         <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>
@@ -3731,7 +3731,7 @@
         <v>9</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
@@ -3743,7 +3743,7 @@
         <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="n">
         <v>21</v>
@@ -3800,7 +3800,7 @@
         <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
         <v>501</v>
@@ -3841,28 +3841,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I19" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O19" t="n">
         <v>1.22</v>
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -3907,10 +3907,10 @@
         <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3940,13 +3940,13 @@
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
         <v>21</v>
@@ -3967,7 +3967,7 @@
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX19" t="n">
         <v>34</v>
@@ -3988,370 +3988,6 @@
         <v>126</v>
       </c>
       <c r="BD19" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>OK8mlfzI</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
-        <v>23</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W20" t="n">
-        <v>13</v>
-      </c>
-      <c r="X20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>xQiOD6C7</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Manisa FK</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Erokspor</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>10</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W21" t="n">
-        <v>7</v>
-      </c>
-      <c r="X21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD21" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1147,10 +1147,10 @@
         <v>2.15</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U4" t="n">
         <v>1.57</v>
@@ -1162,22 +1162,22 @@
         <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1195,13 +1195,13 @@
         <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1228,10 +1228,10 @@
         <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>41</v>
@@ -1240,10 +1240,10 @@
         <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
         <v>34</v>
@@ -1255,7 +1255,7 @@
         <v>101</v>
       </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1657,46 +1657,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
         <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
         <v>1.73</v>
@@ -1705,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1723,10 +1723,10 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1741,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
@@ -1774,7 +1774,7 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1786,13 +1786,13 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1887,19 +1887,19 @@
         <v>2.1</v>
       </c>
       <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
         <v>9</v>
-      </c>
-      <c r="X8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1917,31 +1917,31 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -2045,10 +2045,10 @@
         <v>23</v>
       </c>
       <c r="O9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
         <v>1.36</v>
@@ -2168,7 +2168,7 @@
         <v>251</v>
       </c>
       <c r="BD9" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
         <v>2.38</v>
@@ -2251,7 +2251,7 @@
         <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
         <v>7.5</v>
@@ -2269,10 +2269,10 @@
         <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -2311,7 +2311,7 @@
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2591,22 +2591,22 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
         <v>1.73</v>
@@ -2615,31 +2615,31 @@
         <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2648,28 +2648,28 @@
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
         <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2684,7 +2684,7 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>7.5</v>
@@ -2693,19 +2693,19 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
         <v>151</v>
@@ -2833,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.5</v>
@@ -2848,7 +2848,7 @@
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
         <v>41</v>
@@ -2857,7 +2857,7 @@
         <v>41</v>
       </c>
       <c r="AQ13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AR13" t="n">
         <v>251</v>
@@ -2875,7 +2875,7 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AX13" t="n">
         <v>6</v>
@@ -2961,10 +2961,10 @@
         <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
         <v>1.53</v>
@@ -3495,10 +3495,10 @@
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K18" t="n">
         <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3743,16 +3743,16 @@
         <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
@@ -3767,7 +3767,7 @@
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
@@ -3794,7 +3794,7 @@
         <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA18" t="n">
         <v>126</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
         <v>4.33</v>
       </c>
       <c r="I19" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K19" t="n">
         <v>2.38</v>
@@ -3865,10 +3865,10 @@
         <v>12</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="n">
         <v>1.75</v>
@@ -3898,7 +3898,7 @@
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
         <v>12</v>
@@ -3922,7 +3922,7 @@
         <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
         <v>34</v>
@@ -3949,7 +3949,7 @@
         <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>faP58ueF</t>
+          <t>2Dp9Cokl</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,92 +910,92 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1010,79 +1010,79 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU3" t="n">
         <v>10</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OSlDwjIG</t>
+          <t>h0nDCu6N</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,77 +1092,77 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W4" t="n">
-        <v>13</v>
-      </c>
-      <c r="X4" t="n">
-        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1171,100 +1171,100 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY4" t="n">
         <v>29</v>
       </c>
-      <c r="AC4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC4" t="n">
         <v>126</v>
       </c>
-      <c r="AH4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="BD4" t="n">
         <v>126</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lrv5pa42</t>
+          <t>faP58ueF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,59 +1274,59 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1335,76 +1335,76 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>15</v>
       </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
         <v>11</v>
       </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AP5" t="n">
         <v>23</v>
       </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
         <v>201</v>
@@ -1413,40 +1413,40 @@
         <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC5" t="n">
         <v>81</v>
       </c>
-      <c r="BB5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>d6KN1wQE</t>
+          <t>6wqBnbYe</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.63</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" t="n">
         <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX6" t="n">
         <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>26</v>
       </c>
       <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
         <v>67</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC6" t="n">
         <v>81</v>
       </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>501</v>
-      </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Y5lMvPwo</t>
+          <t>OSlDwjIG</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,36 +1643,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1681,28 +1681,28 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
         <v>13</v>
@@ -1717,100 +1717,100 @@
         <v>41</v>
       </c>
       <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
         <v>29</v>
       </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
       </c>
       <c r="AM7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="n">
         <v>23</v>
       </c>
-      <c r="AN7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
         <v>67</v>
       </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8O4sn7oB</t>
+          <t>lrv5pa42</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,167 +1820,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.25</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.2</v>
       </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>11</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
         <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tbdUsFKa</t>
+          <t>d6KN1wQE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>23</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>13</v>
       </c>
-      <c r="AA9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
       <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
         <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>21</v>
       </c>
-      <c r="AR9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E5ugXK3D</t>
+          <t>Y5lMvPwo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,48 +2189,48 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P10" t="n">
         <v>4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>17</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.75</v>
@@ -2239,124 +2239,124 @@
         <v>2.05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
+        <v>13</v>
+      </c>
+      <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
         <v>7.5</v>
       </c>
-      <c r="X10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y10" t="n">
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AK10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP10" t="n">
         <v>26</v>
       </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK10" t="n">
+      <c r="AQ10" t="n">
         <v>67</v>
       </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>21</v>
-      </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
         <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>29</v>
       </c>
-      <c r="AY10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>101</v>
-      </c>
       <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
         <v>126</v>
       </c>
-      <c r="BB10" t="n">
-        <v>251</v>
-      </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fR1WTocL</t>
+          <t>8O4sn7oB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,41 +2366,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2409,16 +2409,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.98</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.88</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2427,76 +2427,76 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
         <v>11</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
         <v>17</v>
       </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>29</v>
-      </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
@@ -2505,40 +2505,40 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
         <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6FrwUX66</t>
+          <t>0SbJHVr2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,134 +2548,134 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>2.05</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" t="n">
         <v>2.75</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.73</v>
       </c>
-      <c r="V12" t="n">
-        <v>2</v>
-      </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
         <v>19</v>
       </c>
       <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
         <v>17</v>
       </c>
-      <c r="AB12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>13</v>
       </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
       <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
         <v>34</v>
       </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2684,43 +2684,43 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WQFk4C6e</t>
+          <t>fR1WTocL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,59 +2730,59 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="J13" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2791,103 +2791,103 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
         <v>17</v>
       </c>
-      <c r="X13" t="n">
-        <v>41</v>
-      </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AA13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>67</v>
       </c>
-      <c r="AB13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>251</v>
-      </c>
       <c r="AR13" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AS13" t="n">
-        <v>451</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BA13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
         <v>151</v>
@@ -2896,13 +2896,13 @@
         <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>fXd6EqHd</t>
+          <t>WQFk4C6e</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,173 +2912,173 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.35</v>
+        <v>1.25</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>2.03</v>
       </c>
       <c r="S14" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
+        <v>17</v>
+      </c>
+      <c r="X14" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
         <v>8</v>
       </c>
-      <c r="X14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="AL14" t="n">
         <v>12</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AM14" t="n">
         <v>34</v>
       </c>
-      <c r="AA14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AN14" t="n">
         <v>10</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AO14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>451</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
         <v>10</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
         <v>3.75</v>
@@ -3128,7 +3128,7 @@
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3161,13 +3161,13 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
         <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
@@ -3185,7 +3185,7 @@
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
@@ -3203,7 +3203,7 @@
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>17</v>
@@ -3212,7 +3212,7 @@
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO15" t="n">
         <v>17</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>2.75</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>1.83</v>
@@ -3313,10 +3313,10 @@
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
         <v>1.62</v>
@@ -3352,7 +3352,7 @@
         <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
         <v>29</v>
@@ -3394,7 +3394,7 @@
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
         <v>17</v>
@@ -3421,13 +3421,13 @@
         <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
         <v>67</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>je2YYz6p</t>
+          <t>Uo1xYfLj</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,31 +3468,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vasteras SK</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3501,16 +3501,16 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S17" t="n">
         <v>1.3</v>
@@ -3519,55 +3519,55 @@
         <v>3.4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W17" t="n">
         <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
@@ -3576,16 +3576,16 @@
         <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
         <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
@@ -3597,25 +3597,25 @@
         <v>3.4</v>
       </c>
       <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
         <v>8</v>
       </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>7</v>
-      </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
         <v>101</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
         <v>201</v>
@@ -3625,370 +3625,6 @@
       </c>
       <c r="BD17" t="n">
         <v>151</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Uo1xYfLj</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>15:10</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>15</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8</v>
-      </c>
-      <c r="X18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>zZCRIqKc</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SWEDEN - SUPERETTAN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Oddevold</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Skovde AIK</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>12</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W19" t="n">
-        <v>7</v>
-      </c>
-      <c r="X19" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -771,10 +771,10 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
         <v>2.63</v>
@@ -795,7 +795,7 @@
         <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>501</v>
@@ -834,10 +834,10 @@
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -846,10 +846,10 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
@@ -870,31 +870,31 @@
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1135,10 +1135,10 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
         <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
@@ -1314,7 +1314,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1359,7 +1359,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1395,7 +1395,7 @@
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1425,7 +1425,7 @@
         <v>26</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>101</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OSlDwjIG</t>
+          <t>lrv5pa42</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="n">
         <v>13</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13</v>
-      </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
         <v>26</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY7" t="n">
         <v>29</v>
       </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lrv5pa42</t>
+          <t>d6KN1wQE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,174 +1825,174 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.36</v>
       </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
         <v>3</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
         <v>12</v>
       </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8</v>
-      </c>
       <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>13</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
       <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
         <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>23</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY8" t="n">
         <v>26</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>d6KN1wQE</t>
+          <t>Gl8kpoGN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>1.57</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>23</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T9" t="n">
         <v>4</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA9" t="n">
         <v>11</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD9" t="n">
         <v>15</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AE9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
         <v>26</v>
       </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY9" t="n">
         <v>41</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AZ9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA9" t="n">
         <v>201</v>
       </c>
-      <c r="AH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
-      </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Y5lMvPwo</t>
+          <t>0SbJHVr2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,167 +2184,167 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.73</v>
       </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
       <c r="W10" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>13</v>
       </c>
-      <c r="AD10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AK10" t="n">
         <v>41</v>
       </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>15</v>
-      </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP10" t="n">
         <v>21</v>
       </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8O4sn7oB</t>
+          <t>fR1WTocL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,41 +2366,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2409,16 +2409,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.88</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.98</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2427,76 +2427,76 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL11" t="n">
         <v>17</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AM11" t="n">
         <v>26</v>
       </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
@@ -2505,40 +2505,40 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
         <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0SbJHVr2</t>
+          <t>WQFk4C6e</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W12" t="n">
+        <v>17</v>
+      </c>
+      <c r="X12" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>451</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
         <v>3.1</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AX12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY12" t="n">
         <v>19</v>
       </c>
-      <c r="AA12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AZ12" t="n">
         <v>17</v>
       </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="BA12" t="n">
         <v>41</v>
       </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="BB12" t="n">
         <v>151</v>
       </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>251</v>
-      </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fR1WTocL</t>
+          <t>48PanqCr</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,41 +2730,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.4</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I13" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2779,10 +2779,10 @@
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2797,19 +2797,19 @@
         <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
         <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
@@ -2818,28 +2818,28 @@
         <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
@@ -2848,19 +2848,19 @@
         <v>26</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
         <v>67</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>81</v>
       </c>
       <c r="AS13" t="n">
         <v>151</v>
@@ -2869,22 +2869,22 @@
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
         <v>51</v>
@@ -2893,16 +2893,16 @@
         <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WQFk4C6e</t>
+          <t>nqew2rm2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X14" t="n">
         <v>10</v>
       </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
         <v>17</v>
       </c>
-      <c r="X14" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
         <v>101</v>
       </c>
-      <c r="AA14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>251</v>
-      </c>
       <c r="AS14" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="AU14" t="n">
         <v>10</v>
       </c>
       <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>67</v>
       </c>
-      <c r="AW14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>17</v>
-      </c>
       <c r="BA14" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>48PanqCr</t>
+          <t>GAw0YMbl</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,536 +3094,172 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.29</v>
       </c>
-      <c r="P15" t="n">
+      <c r="T15" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="W15" t="n">
         <v>11</v>
       </c>
       <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
         <v>17</v>
       </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="n">
         <v>34</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AG15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
         <v>26</v>
       </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR15" t="n">
         <v>41</v>
       </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AS15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX15" t="n">
         <v>19</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC15" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>nqew2rm2</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Racing Club Ferrol</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6</v>
-      </c>
-      <c r="X16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Uo1xYfLj</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>15:10</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>15</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD17" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -798,16 +798,16 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -828,16 +828,16 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -846,10 +846,10 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -861,7 +861,7 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -873,16 +873,16 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>h0nDCu6N</t>
+          <t>GMwC7YTQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>SA Bulo Bulo</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
+        <v>17</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
         <v>6.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AX4" t="n">
         <v>23</v>
       </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>15</v>
-      </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>faP58ueF</t>
+          <t>h0nDCu6N</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
         <v>5</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
         <v>34</v>
       </c>
-      <c r="AC5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC5" t="n">
         <v>126</v>
       </c>
-      <c r="BB5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6wqBnbYe</t>
+          <t>faP58ueF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,55 +1466,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
         <v>5</v>
       </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.63</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1523,25 +1523,25 @@
         <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
         <v>15</v>
       </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
       <c r="AA6" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1553,46 +1553,46 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>41</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>101</v>
-      </c>
       <c r="AR6" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1601,22 +1601,22 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lrv5pa42</t>
+          <t>6wqBnbYe</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>9</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AK7" t="n">
         <v>15</v>
       </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY7" t="n">
         <v>26</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>d6KN1wQE</t>
+          <t>lrv5pa42</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,174 +1825,174 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.63</v>
-      </c>
       <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.2</v>
       </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.88</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
         <v>15</v>
       </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>11</v>
       </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gl8kpoGN</t>
+          <t>d6KN1wQE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,173 +2002,173 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
         <v>7.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>10</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>23</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
         <v>81</v>
       </c>
-      <c r="AG9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="BB9" t="n">
         <v>151</v>
       </c>
-      <c r="AL9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>301</v>
-      </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2666,7 +2666,7 @@
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO12" t="n">
         <v>41</v>
@@ -2675,7 +2675,7 @@
         <v>41</v>
       </c>
       <c r="AQ12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AR12" t="n">
         <v>251</v>
@@ -2693,7 +2693,7 @@
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AX12" t="n">
         <v>6</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
         <v>2.75</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.5</v>
@@ -2955,16 +2955,16 @@
         <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S14" t="n">
         <v>1.67</v>
@@ -2979,13 +2979,13 @@
         <v>1.53</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
         <v>26</v>
@@ -2994,7 +2994,7 @@
         <v>29</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC14" t="n">
         <v>5</v>
@@ -3012,10 +3012,10 @@
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>13</v>
@@ -3057,7 +3057,7 @@
         <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX14" t="n">
         <v>21</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -3164,28 +3164,28 @@
         <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="n">
         <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
         <v>34</v>
@@ -3194,40 +3194,40 @@
         <v>101</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
         <v>41</v>
       </c>
       <c r="AL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM15" t="n">
         <v>26</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
       </c>
       <c r="AN15" t="n">
         <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
         <v>3.5</v>
@@ -3239,10 +3239,10 @@
         <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>21</v>
@@ -3251,16 +3251,16 @@
         <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC15" t="n">
         <v>351</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -789,16 +789,16 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -828,7 +828,7 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -2057,16 +2057,16 @@
         <v>1.93</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
         <v>8</v>
@@ -2081,10 +2081,10 @@
         <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -2102,13 +2102,13 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
@@ -2135,10 +2135,10 @@
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0SbJHVr2</t>
+          <t>Gl8kpoGN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,65 +2184,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>1.18</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>9.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="O10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.4</v>
       </c>
-      <c r="P10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>2.88</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -2251,100 +2251,100 @@
         <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY10" t="n">
         <v>41</v>
       </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fR1WTocL</t>
+          <t>0SbJHVr2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.63</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
       <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.73</v>
       </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WQFk4C6e</t>
+          <t>fR1WTocL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,59 +2548,59 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.25</v>
+        <v>2.01</v>
       </c>
       <c r="J12" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2609,103 +2609,103 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
         <v>17</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
         <v>41</v>
       </c>
-      <c r="Y12" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>101</v>
-      </c>
       <c r="AA12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>67</v>
       </c>
-      <c r="AB12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>201</v>
-      </c>
       <c r="AR12" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>451</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
         <v>151</v>
@@ -2714,13 +2714,13 @@
         <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>48PanqCr</t>
+          <t>hxCBKsK7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I13" t="n">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH13" t="n">
         <v>11</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>10</v>
-      </c>
-      <c r="X13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="AI13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
         <v>11</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>34</v>
       </c>
-      <c r="AA13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
       <c r="AR13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
         <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nqew2rm2</t>
+          <t>WQFk4C6e</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>1.29</v>
       </c>
       <c r="J14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
         <v>3.5</v>
       </c>
-      <c r="K14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Q14" t="n">
-        <v>3.4</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.98</v>
       </c>
       <c r="S14" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="X14" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="n">
         <v>11</v>
       </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AD14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE14" t="n">
         <v>26</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>21</v>
       </c>
       <c r="AF14" t="n">
         <v>81</v>
       </c>
       <c r="AG14" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>201</v>
       </c>
-      <c r="AH14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
       <c r="AR14" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AS14" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>10</v>
       </c>
       <c r="AV14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="AX14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY14" t="n">
         <v>21</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AZ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA14" t="n">
         <v>41</v>
       </c>
-      <c r="AZ14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA14" t="n">
+      <c r="BB14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC14" t="n">
         <v>126</v>
       </c>
-      <c r="BB14" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>81</v>
-      </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GAw0YMbl</t>
+          <t>48PanqCr</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,172 +3094,536 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="W15" t="n">
+        <v>10</v>
+      </c>
+      <c r="X15" t="n">
         <v>17</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
         <v>11</v>
       </c>
-      <c r="X15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>9</v>
       </c>
-      <c r="Z15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AK15" t="n">
         <v>21</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AL15" t="n">
         <v>17</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>23</v>
       </c>
       <c r="AM15" t="n">
         <v>26</v>
       </c>
       <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
         <v>51</v>
       </c>
       <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>nqew2rm2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Racing Club Ferrol</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF16" t="n">
         <v>101</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS16" t="n">
         <v>351</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="AT16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GAw0YMbl</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>17</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>11</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD17" t="n">
         <v>176</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1863,16 +1863,16 @@
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1881,19 +1881,19 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>26</v>
@@ -1905,7 +1905,7 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1917,7 +1917,7 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
         <v>8</v>
@@ -1932,10 +1932,10 @@
         <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
         <v>4.5</v>
@@ -1962,16 +1962,16 @@
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
@@ -1980,7 +1980,7 @@
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
         <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -2045,16 +2045,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2087,10 +2087,10 @@
         <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2105,7 +2105,7 @@
         <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>12</v>
@@ -2120,10 +2120,10 @@
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -2141,7 +2141,7 @@
         <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
@@ -2162,7 +2162,7 @@
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gl8kpoGN</t>
+          <t>0SbJHVr2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,65 +2184,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.18</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
         <v>7.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>10</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>23</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>2.88</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -2251,100 +2251,100 @@
         <v>1.73</v>
       </c>
       <c r="W10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="n">
         <v>9.5</v>
       </c>
-      <c r="X10" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
       <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>21</v>
-      </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
       </c>
       <c r="AH10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX10" t="n">
         <v>26</v>
       </c>
-      <c r="AI10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AY10" t="n">
         <v>34</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AZ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA10" t="n">
         <v>101</v>
       </c>
-      <c r="AT10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
+      <c r="BB10" t="n">
         <v>251</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0SbJHVr2</t>
+          <t>fR1WTocL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.05</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.8</v>
-      </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V11" t="n">
         <v>2</v>
       </c>
-      <c r="V11" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL11" t="n">
         <v>17</v>
       </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AM11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO11" t="n">
         <v>19</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>34</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>81</v>
-      </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>fR1WTocL</t>
+          <t>hxCBKsK7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,85 +2558,85 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.01</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.63</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
         <v>17</v>
       </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>29</v>
       </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2645,70 +2645,70 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
         <v>126</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hxCBKsK7</t>
+          <t>WQFk4C6e</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>1.29</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>1.83</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W13" t="n">
+        <v>17</v>
+      </c>
+      <c r="X13" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
         <v>10</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="AE13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AK13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>451</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY13" t="n">
         <v>21</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AZ13" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB13" t="n">
         <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>251</v>
       </c>
       <c r="BC13" t="n">
         <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WQFk4C6e</t>
+          <t>nqew2rm2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X14" t="n">
         <v>10</v>
       </c>
-      <c r="H14" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="Y14" t="n">
         <v>11</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="Z14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
         <v>17</v>
       </c>
-      <c r="X14" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
         <v>101</v>
       </c>
-      <c r="AA14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>201</v>
-      </c>
       <c r="AS14" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="AU14" t="n">
         <v>10</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="BA14" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>48PanqCr</t>
+          <t>GAw0YMbl</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,536 +3094,172 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L15" t="n">
         <v>3.75</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.88</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
+        <v>17</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W15" t="n">
         <v>11</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>10</v>
-      </c>
       <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
         <v>17</v>
       </c>
-      <c r="Y15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AD15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF15" t="n">
         <v>34</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AG15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
         <v>23</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>17</v>
       </c>
       <c r="AM15" t="n">
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP15" t="n">
         <v>17</v>
       </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
         <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC15" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>nqew2rm2</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Racing Club Ferrol</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GAw0YMbl</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>FC Cincinnati</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>17</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>11</v>
-      </c>
-      <c r="X17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD17" t="n">
         <v>176</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -771,10 +771,10 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
         <v>2.63</v>
@@ -789,19 +789,19 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
         <v>11</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>501</v>
@@ -861,7 +861,7 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -870,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
         <v>4.75</v>
@@ -888,13 +888,13 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GMwC7YTQ</t>
+          <t>lAt5DRZs</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W4" t="n">
         <v>4.75</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="X4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>17</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
         <v>13</v>
       </c>
-      <c r="AA4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY4" t="n">
         <v>41</v>
       </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AZ4" t="n">
         <v>101</v>
       </c>
-      <c r="AT4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>67</v>
-      </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>h0nDCu6N</t>
+          <t>GMwC7YTQ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>SA Bulo Bulo</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="U5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
         <v>6.5</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AX5" t="n">
         <v>23</v>
       </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>13</v>
-      </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>faP58ueF</t>
+          <t>h0nDCu6N</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
         <v>5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX6" t="n">
         <v>15</v>
       </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>26</v>
-      </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC6" t="n">
         <v>126</v>
       </c>
-      <c r="BB6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6wqBnbYe</t>
+          <t>jyjdGN6b</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="T7" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
         <v>67</v>
       </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
         <v>8</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>15</v>
       </c>
-      <c r="AL7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>11</v>
-      </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
         <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lrv5pa42</t>
+          <t>faP58ueF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1869,88 +1869,88 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T8" t="n">
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
         <v>7.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>12</v>
-      </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
@@ -1959,40 +1959,40 @@
         <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC8" t="n">
         <v>81</v>
       </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>d6KN1wQE</t>
+          <t>6wqBnbYe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.1</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI9" t="n">
         <v>8</v>
       </c>
-      <c r="X9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AJ9" t="n">
         <v>9</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
         <v>19</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0SbJHVr2</t>
+          <t>pUsFoIm2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,47 +2184,47 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2233,16 +2233,16 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -2254,16 +2254,16 @@
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2281,64 +2281,64 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>351</v>
+        <v>900</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
         <v>101</v>
@@ -2347,16 +2347,16 @@
         <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fR1WTocL</t>
+          <t>lrv5pa42</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,95 +2366,95 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
         <v>3.6</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.63</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2463,82 +2463,82 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH11" t="n">
         <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hxCBKsK7</t>
+          <t>d6KN1wQE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,41 +2548,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2591,91 +2591,91 @@
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
         <v>34</v>
       </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2684,43 +2684,43 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
         <v>81</v>
       </c>
-      <c r="BA12" t="n">
-        <v>101</v>
-      </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD12" t="n">
         <v>126</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WQFk4C6e</t>
+          <t>0SbJHVr2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.29</v>
+        <v>3.8</v>
       </c>
       <c r="J13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
         <v>8.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W13" t="n">
-        <v>17</v>
-      </c>
-      <c r="X13" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA13" t="n">
         <v>101</v>
       </c>
-      <c r="AA13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>451</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>41</v>
-      </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nqew2rm2</t>
+          <t>fR1WTocL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
         <v>3.5</v>
       </c>
-      <c r="K14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Q14" t="n">
-        <v>3.1</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.36</v>
       </c>
-      <c r="S14" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="n">
         <v>29</v>
       </c>
       <c r="AB14" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>34</v>
       </c>
-      <c r="AM14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>81</v>
-      </c>
       <c r="BA14" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GAw0YMbl</t>
+          <t>hxCBKsK7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,172 +3094,536 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
         <v>15</v>
       </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>12</v>
-      </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
         <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
         <v>34</v>
       </c>
       <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WQFk4C6e</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W16" t="n">
+        <v>19</v>
+      </c>
+      <c r="X16" t="n">
         <v>41</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="Y16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GAw0YMbl</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>17</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>11</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG17" t="n">
         <v>101</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
         <v>3.5</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU17" t="n">
         <v>7</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV17" t="n">
         <v>41</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW17" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX17" t="n">
         <v>17</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY17" t="n">
         <v>21</v>
       </c>
-      <c r="AZ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB15" t="n">
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
         <v>101</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="BC17" t="n">
         <v>351</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="BD17" t="n">
         <v>176</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E595Qvn9</t>
+          <t>2Dp9Cokl</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,74 +728,74 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ath Bilbao</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.53</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
@@ -807,43 +807,43 @@
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>501</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
@@ -852,55 +852,55 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2Dp9Cokl</t>
+          <t>lAt5DRZs</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,49 +920,49 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gimnasia L.P.</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.88</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
         <v>1.67</v>
@@ -971,67 +971,67 @@
         <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA3" t="n">
         <v>23</v>
       </c>
-      <c r="AA3" t="n">
-        <v>26</v>
-      </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="n">
         <v>201</v>
       </c>
-      <c r="AH3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
@@ -1043,34 +1043,34 @@
         <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT3" t="n">
         <v>2.1</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lAt5DRZs</t>
+          <t>GMwC7YTQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>SA Bulo Bulo</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.4</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>2.35</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
         <v>8</v>
       </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>23</v>
       </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>23</v>
       </c>
-      <c r="AF4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
+      <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="BD4" t="n">
         <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GMwC7YTQ</t>
+          <t>h0nDCu6N</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>17</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AX5" t="n">
         <v>13</v>
       </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AY5" t="n">
         <v>29</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AZ5" t="n">
         <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>67</v>
       </c>
       <c r="BA5" t="n">
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>h0nDCu6N</t>
+          <t>jyjdGN6b</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.4</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.33</v>
-      </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AE6" t="n">
         <v>15</v>
       </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AF6" t="n">
         <v>51</v>
       </c>
-      <c r="AC6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>81</v>
-      </c>
       <c r="AG6" t="n">
-        <v>501</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jyjdGN6b</t>
+          <t>faP58ueF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,134 +1638,134 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.1</v>
       </c>
-      <c r="L7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
         <v>13</v>
       </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>29</v>
-      </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>51</v>
       </c>
-      <c r="AG7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
         <v>10</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AP7" t="n">
         <v>23</v>
       </c>
-      <c r="AL7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
@@ -1774,43 +1774,43 @@
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>faP58ueF</t>
+          <t>6wqBnbYe</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,31 +1830,31 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1863,22 +1863,22 @@
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
@@ -1887,22 +1887,22 @@
         <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC8" t="n">
         <v>7</v>
@@ -1917,46 +1917,46 @@
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>5.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1965,22 +1965,22 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AX8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY8" t="n">
         <v>26</v>
       </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6wqBnbYe</t>
+          <t>pUsFoIm2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,157 +2012,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.3</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.9</v>
-      </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
         <v>9.5</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>21</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>15</v>
       </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
         <v>67</v>
       </c>
-      <c r="AG9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>126</v>
-      </c>
       <c r="AS9" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pUsFoIm2</t>
+          <t>0SbJHVr2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,47 +2184,47 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2233,16 +2233,16 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -2254,16 +2254,16 @@
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2281,64 +2281,64 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>900</v>
+        <v>9.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
         <v>101</v>
@@ -2347,16 +2347,16 @@
         <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lrv5pa42</t>
+          <t>fR1WTocL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V11" t="n">
         <v>2</v>
       </c>
-      <c r="L11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
         <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>351</v>
+        <v>8.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="n">
         <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA11" t="n">
         <v>51</v>
       </c>
-      <c r="BA11" t="n">
-        <v>81</v>
-      </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>d6KN1wQE</t>
+          <t>hxCBKsK7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,41 +2548,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2591,91 +2591,91 @@
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.83</v>
       </c>
-      <c r="S12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="n">
         <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2684,43 +2684,43 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
         <v>151</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0SbJHVr2</t>
+          <t>WQFk4C6e</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>1.83</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.25</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="X13" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI13" t="n">
         <v>9</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK13" t="n">
         <v>13</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
       </c>
       <c r="AL13" t="n">
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="AP13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY13" t="n">
         <v>21</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AZ13" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB13" t="n">
         <v>151</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>251</v>
-      </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>fR1WTocL</t>
+          <t>GAw0YMbl</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,718 +2912,172 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.6</v>
       </c>
-      <c r="I14" t="n">
-        <v>2.05</v>
-      </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.29</v>
       </c>
-      <c r="P14" t="n">
+      <c r="T14" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W14" t="n">
         <v>11</v>
       </c>
       <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
         <v>17</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>12</v>
       </c>
-      <c r="Z14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AF14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>29</v>
       </c>
-      <c r="AB14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AR14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU14" t="n">
         <v>7</v>
       </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="AV14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX14" t="n">
         <v>19</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>11</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>hxCBKsK7</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>PERU - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cusco</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Grau</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7</v>
-      </c>
-      <c r="X15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>WQFk4C6e</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>AVS</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>FC Porto</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>10</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W16" t="n">
-        <v>19</v>
-      </c>
-      <c r="X16" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GAw0YMbl</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>FC Cincinnati</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>17</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>11</v>
-      </c>
-      <c r="X17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD17" t="n">
         <v>176</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -947,10 +947,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.67</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1374,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
         <v>10</v>
@@ -1413,7 +1413,7 @@
         <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -1496,7 +1496,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1675,10 +1675,10 @@
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1705,7 +1705,7 @@
         <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
         <v>7.5</v>
@@ -1753,7 +1753,7 @@
         <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN7" t="n">
         <v>3.6</v>
@@ -1768,7 +1768,7 @@
         <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J8" t="n">
         <v>5</v>
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1881,10 +1881,10 @@
         <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
         <v>9.5</v>
@@ -1896,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA8" t="n">
         <v>41</v>
@@ -1911,7 +1911,7 @@
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1920,7 +1920,7 @@
         <v>5.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
         <v>9</v>
@@ -1950,7 +1950,7 @@
         <v>101</v>
       </c>
       <c r="AR8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS8" t="n">
         <v>351</v>
@@ -2051,10 +2051,10 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2117,7 +2117,7 @@
         <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN9" t="n">
         <v>4.33</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -2233,10 +2233,10 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2245,25 +2245,25 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2275,25 +2275,25 @@
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2323,7 +2323,7 @@
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WQFk4C6e</t>
+          <t>GAw0YMbl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>1.91</v>
       </c>
       <c r="H13" t="n">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="J13" t="n">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.38</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT13" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="AU13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX13" t="n">
         <v>19</v>
-      </c>
-      <c r="X13" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>6.5</v>
       </c>
       <c r="AY13" t="n">
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="BA13" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD13" t="n">
         <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GAw0YMbl</t>
+          <t>CC5M2P9d</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,163 +2922,163 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.95</v>
       </c>
-      <c r="H14" t="n">
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN14" t="n">
         <v>3.75</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>17</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W14" t="n">
-        <v>11</v>
-      </c>
-      <c r="X14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AO14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP14" t="n">
         <v>21</v>
       </c>
-      <c r="AC14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AQ14" t="n">
         <v>34</v>
       </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>29</v>
-      </c>
       <c r="AR14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC14" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD14" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -771,16 +771,16 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>1.67</v>
@@ -1141,10 +1141,10 @@
         <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S4" t="n">
         <v>1.29</v>
@@ -1317,10 +1317,10 @@
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1681,16 +1681,16 @@
         <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0SbJHVr2</t>
+          <t>K4qymNjt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,59 +2184,59 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="H10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2245,118 +2245,118 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO10" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fR1WTocL</t>
+          <t>0SbJHVr2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,173 +2366,173 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.63</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
       <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.73</v>
       </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
       <c r="W11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X11" t="n">
         <v>10</v>
       </c>
-      <c r="X11" t="n">
-        <v>15</v>
-      </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
         <v>8.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AP11" t="n">
         <v>21</v>
       </c>
-      <c r="AK11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -2752,16 +2752,16 @@
         <v>1.91</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
         <v>3.75</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
         <v>4</v>
@@ -2785,37 +2785,37 @@
         <v>2.25</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
         <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
         <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
         <v>7.5</v>
@@ -2824,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
         <v>15</v>
@@ -2845,13 +2845,13 @@
         <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN13" t="n">
         <v>4.33</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>17</v>
@@ -2863,10 +2863,10 @@
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
         <v>7</v>
@@ -2881,7 +2881,7 @@
         <v>19</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
         <v>51</v>
@@ -2893,7 +2893,7 @@
         <v>126</v>
       </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -3012,7 +3012,7 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>15</v>
@@ -3033,7 +3033,7 @@
         <v>3.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3060,7 +3060,7 @@
         <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY14" t="n">
         <v>34</v>
@@ -3069,13 +3069,13 @@
         <v>81</v>
       </c>
       <c r="BA14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
         <v>251</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,16 +771,16 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.67</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -944,13 +944,13 @@
         <v>1.8</v>
       </c>
       <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N3" t="n">
         <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.67</v>
@@ -1055,7 +1055,7 @@
         <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>29</v>
@@ -1141,10 +1141,10 @@
         <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S4" t="n">
         <v>1.29</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1317,16 +1317,16 @@
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1341,7 +1341,7 @@
         <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1350,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>34</v>
@@ -1374,13 +1374,13 @@
         <v>6</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
         <v>23</v>
@@ -1401,7 +1401,7 @@
         <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
         <v>126</v>
@@ -1413,13 +1413,13 @@
         <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
         <v>15</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>faP58ueF</t>
+          <t>6wqBnbYe</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,49 +1648,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -1705,22 +1705,22 @@
         <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
         <v>7.5</v>
@@ -1735,43 +1735,43 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
         <v>23</v>
       </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10</v>
-      </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT7" t="n">
         <v>2.5</v>
@@ -1783,22 +1783,22 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6wqBnbYe</t>
+          <t>pUsFoIm2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,31 +1830,31 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.3</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.85</v>
-      </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1863,124 +1863,124 @@
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y8" t="n">
         <v>9.5</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>21</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>15</v>
       </c>
-      <c r="Z8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
         <v>67</v>
       </c>
-      <c r="AG8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>151</v>
-      </c>
       <c r="AS8" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pUsFoIm2</t>
+          <t>K4qymNjt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
         <v>3</v>
       </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>21</v>
-      </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO9" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
         <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5</v>
-      </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>K4qymNjt</t>
+          <t>0SbJHVr2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,59 +2184,59 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
         <v>8</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2245,118 +2245,118 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH10" t="n">
         <v>15</v>
       </c>
-      <c r="AH10" t="n">
-        <v>41</v>
-      </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>81</v>
       </c>
-      <c r="AW10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>201</v>
-      </c>
       <c r="BA10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB10" t="n">
         <v>251</v>
       </c>
-      <c r="BB10" t="n">
-        <v>501</v>
-      </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0SbJHVr2</t>
+          <t>hxCBKsK7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,59 +2366,59 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2427,49 +2427,49 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
         <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
       </c>
       <c r="AJ11" t="n">
         <v>41</v>
@@ -2481,13 +2481,13 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2511,13 +2511,13 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
         <v>81</v>
@@ -2529,16 +2529,16 @@
         <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hxCBKsK7</t>
+          <t>GAw0YMbl</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,170 +2548,170 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P12" t="n">
         <v>4.5</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W12" t="n">
         <v>10</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W12" t="n">
-        <v>7</v>
-      </c>
       <c r="X12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
       <c r="Z12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="n">
         <v>15</v>
       </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
         <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
         <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GAw0YMbl</t>
+          <t>CC5M2P9d</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,344 +2740,162 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
         <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
         <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
         <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC13" t="n">
         <v>126</v>
       </c>
-      <c r="BC13" t="n">
-        <v>401</v>
-      </c>
       <c r="BD13" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CC5M2P9d</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Houston Dynamo</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD14" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -771,16 +771,16 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>1.67</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -1404,7 +1404,7 @@
         <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="n">
         <v>351</v>
@@ -1505,10 +1505,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1553,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH6" t="n">
         <v>12</v>
@@ -1562,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1580,7 +1580,7 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J7" t="n">
         <v>4.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
         <v>2.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1687,10 +1687,10 @@
         <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -1699,13 +1699,13 @@
         <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
         <v>19</v>
@@ -1723,7 +1723,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1744,10 +1744,10 @@
         <v>9</v>
       </c>
       <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
         <v>17</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>34</v>
@@ -1789,7 +1789,7 @@
         <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2254,7 +2254,7 @@
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -2281,10 +2281,10 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2323,7 +2323,7 @@
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2767,10 +2767,10 @@
         <v>4.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2779,10 +2779,10 @@
         <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -2209,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2254,7 +2254,7 @@
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -2281,7 +2281,7 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2323,7 +2323,7 @@
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2573,7 +2573,7 @@
         <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
         <v>2.5</v>
@@ -2597,10 +2597,10 @@
         <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S12" t="n">
         <v>1.3</v>
@@ -2615,7 +2615,7 @@
         <v>2.25</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
@@ -2627,7 +2627,7 @@
         <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2636,7 +2636,7 @@
         <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2666,7 +2666,7 @@
         <v>126</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
         <v>10</v>
@@ -2687,7 +2687,7 @@
         <v>3.4</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2Dp9Cokl</t>
+          <t>lAt5DRZs</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,49 +738,49 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gimnasia L.P.</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3.4</v>
       </c>
-      <c r="K2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
         <v>1.67</v>
@@ -789,67 +789,67 @@
         <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="n">
         <v>23</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -861,34 +861,34 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT2" t="n">
         <v>2.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lAt5DRZs</t>
+          <t>GMwC7YTQ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,107 +910,107 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>SA Bulo Bulo</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.1</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.17</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>5</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Q3" t="n">
-        <v>3.4</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>2.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
         <v>8</v>
       </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
         <v>19</v>
       </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8</v>
-      </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
@@ -1019,70 +1019,70 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AN3" t="n">
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="AR3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>401</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GMwC7YTQ</t>
+          <t>jyjdGN6b</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN4" t="n">
         <v>4.75</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AO4" t="n">
         <v>15</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
         <v>8</v>
       </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>15</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AY4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>51</v>
       </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
         <v>67</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>h0nDCu6N</t>
+          <t>pUsFoIm2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.25</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W5" t="n">
         <v>6.5</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7</v>
-      </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
         <v>34</v>
       </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
       <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
         <v>5</v>
       </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC5" t="n">
         <v>81</v>
       </c>
-      <c r="BB5" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jyjdGN6b</t>
+          <t>K4qymNjt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,59 +1456,59 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1517,106 +1517,106 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
         <v>15</v>
       </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AM6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR6" t="n">
         <v>51</v>
       </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6wqBnbYe</t>
+          <t>0SbJHVr2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,47 +1638,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.4</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.9</v>
-      </c>
       <c r="J7" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1687,16 +1687,16 @@
         <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -1705,112 +1705,112 @@
         <v>1.73</v>
       </c>
       <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
         <v>9.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
       <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>41</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
         <v>41</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>351</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>34</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>81</v>
       </c>
-      <c r="AR7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>41</v>
-      </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pUsFoIm2</t>
+          <t>hxCBKsK7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,155 +1820,155 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.25</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="n">
         <v>15</v>
       </c>
-      <c r="AI8" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="n">
         <v>34</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>800</v>
+        <v>251</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -1980,19 +1980,19 @@
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>K4qymNjt</t>
+          <t>GAw0YMbl</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.9</v>
       </c>
-      <c r="I9" t="n">
-        <v>8</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7.5</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
       </c>
       <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>41</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AK9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY9" t="n">
         <v>23</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
         <v>67</v>
       </c>
-      <c r="AL9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>251</v>
-      </c>
       <c r="BB9" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0SbJHVr2</t>
+          <t>CC5M2P9d</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,32 +2184,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -2218,25 +2218,25 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2245,34 +2245,34 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -2281,19 +2281,19 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK10" t="n">
         <v>41</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2305,7 +2305,7 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
@@ -2329,10 +2329,10 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
@@ -2347,555 +2347,9 @@
         <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>hxCBKsK7</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PERU - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Cusco</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Grau</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7</v>
-      </c>
-      <c r="X11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GAw0YMbl</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>FC Cincinnati</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>15</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CC5M2P9d</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Houston Dynamo</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD13" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
         <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.1</v>
@@ -944,7 +944,7 @@
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -977,7 +977,7 @@
         <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
         <v>9</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -998,10 +998,10 @@
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1019,13 +1019,13 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN3" t="n">
         <v>3.75</v>
@@ -1037,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1058,10 +1058,10 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
         <v>81</v>
@@ -1141,10 +1141,10 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="R4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0SbJHVr2</t>
+          <t>hxCBKsK7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,59 +1638,59 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1699,49 +1699,49 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1753,19 +1753,19 @@
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1777,40 +1777,40 @@
         <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
         <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hxCBKsK7</t>
+          <t>GAw0YMbl</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,170 +1820,170 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
         <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
         <v>8.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
         <v>15</v>
       </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AN8" t="n">
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
         <v>23</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AZ8" t="n">
         <v>51</v>
       </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
+      <c r="BA8" t="n">
         <v>67</v>
       </c>
-      <c r="BA8" t="n">
-        <v>101</v>
-      </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GAw0YMbl</t>
+          <t>CC5M2P9d</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,344 +2012,162 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>17</v>
       </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12</v>
-      </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK9" t="n">
         <v>41</v>
       </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC9" t="n">
         <v>126</v>
       </c>
-      <c r="BC9" t="n">
-        <v>401</v>
-      </c>
       <c r="BD9" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CC5M2P9d</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Houston Dynamo</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD10" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1311,10 +1311,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1678,7 +1678,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GAw0YMbl</t>
+          <t>CC5M2P9d</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,344 +1830,162 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>17</v>
       </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12</v>
-      </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK8" t="n">
         <v>41</v>
       </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
         <v>126</v>
       </c>
-      <c r="BC8" t="n">
-        <v>401</v>
-      </c>
       <c r="BD8" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CC5M2P9d</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Houston Dynamo</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -777,10 +777,10 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>1.67</v>
@@ -798,13 +798,13 @@
         <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>23</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -849,25 +849,25 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
         <v>2.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>101</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GMwC7YTQ</t>
+          <t>jyjdGN6b</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.1</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.5</v>
-      </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>2.35</v>
+        <v>1.86</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
         <v>29</v>
       </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AM3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>51</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>41</v>
       </c>
-      <c r="AL3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>81</v>
-      </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jyjdGN6b</t>
+          <t>pUsFoIm2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,93 +1097,93 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.75</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>10</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>13</v>
-      </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
@@ -1192,79 +1192,79 @@
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
         <v>12</v>
       </c>
-      <c r="AI4" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
         <v>26</v>
       </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pUsFoIm2</t>
+          <t>K4qymNjt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,41 +1274,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1317,136 +1317,136 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO5" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR5" t="n">
         <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
       </c>
       <c r="AS5" t="n">
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>K4qymNjt</t>
+          <t>hxCBKsK7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,41 +1456,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.9</v>
       </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1499,16 +1499,16 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1517,118 +1517,118 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
         <v>15</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK6" t="n">
         <v>34</v>
       </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AL6" t="n">
         <v>41</v>
       </c>
-      <c r="AI6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>67</v>
-      </c>
       <c r="AM6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
         <v>201</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>501</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hxCBKsK7</t>
+          <t>CC5M2P9d</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,47 +1638,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1687,10 +1687,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1699,25 +1699,25 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
         <v>29</v>
@@ -1726,10 +1726,10 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1738,34 +1738,34 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK7" t="n">
         <v>41</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1777,215 +1777,33 @@
         <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CC5M2P9d</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Houston Dynamo</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -944,7 +944,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -983,13 +983,13 @@
         <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
@@ -1058,7 +1058,7 @@
         <v>4.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
         <v>23</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1153,13 +1153,13 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>10</v>
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AN4" t="n">
         <v>4.33</v>
@@ -1249,7 +1249,7 @@
         <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>251</v>
@@ -1323,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hxCBKsK7</t>
+          <t>CC5M2P9d</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,41 +1456,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1499,16 +1499,16 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1517,293 +1517,111 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK6" t="n">
         <v>41</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>251</v>
+        <v>451</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CC5M2P9d</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Houston Dynamo</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>401</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD7" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1335,10 +1335,10 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1350,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
@@ -1374,16 +1374,16 @@
         <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
         <v>67</v>
@@ -1392,16 +1392,16 @@
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
@@ -1428,10 +1428,10 @@
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA5" t="n">
         <v>201</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>251</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1559,7 +1559,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1568,7 +1568,7 @@
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>451</v>
@@ -1607,7 +1607,7 @@
         <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lAt5DRZs</t>
+          <t>K4qymNjt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,116 +728,116 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="Q2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W2" t="n">
         <v>5.5</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4.75</v>
-      </c>
       <c r="X2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="n">
         <v>21</v>
       </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK2" t="n">
         <v>51</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
@@ -846,43 +846,43 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jyjdGN6b</t>
+          <t>CC5M2P9d</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,59 +910,59 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,76 +971,76 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>13</v>
       </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>29</v>
-      </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="n">
         <v>41</v>
       </c>
-      <c r="AG3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP3" t="n">
         <v>21</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AQ3" t="n">
         <v>29</v>
       </c>
-      <c r="AM3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
@@ -1049,579 +1049,33 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC3" t="n">
         <v>151</v>
       </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
       <c r="BD3" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>pUsFoIm2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE B</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>America MG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sport Recife</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7</v>
-      </c>
-      <c r="X4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>K4qymNjt</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ind. Medellin</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jaguares de Cordoba</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CC5M2P9d</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Houston Dynamo</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>451</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD6" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.2</v>
@@ -762,7 +762,7 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -798,13 +798,13 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>34</v>
@@ -834,19 +834,19 @@
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
         <v>8</v>
@@ -876,7 +876,7 @@
         <v>7.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -959,10 +959,10 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>K4qymNjt</t>
+          <t>E595Qvn9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Ath Bilbao</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
         <v>6.5</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="V2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
         <v>6.5</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
       </c>
       <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI2" t="n">
         <v>13</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK2" t="n">
         <v>34</v>
       </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY2" t="n">
         <v>34</v>
       </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CC5M2P9d</t>
+          <t>2Dp9Cokl</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,113 +910,113 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:50</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.38</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
         <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1025,57 +1025,6609 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS3" t="n">
         <v>351</v>
       </c>
-      <c r="AN3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AT3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="n">
         <v>21</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>26</v>
-      </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
       </c>
       <c r="BB3" t="n">
+        <v>451</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lAt5DRZs</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Central Cordoba</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GMwC7YTQ</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SA Bulo Bulo</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>h0nDCu6N</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>jyjdGN6b</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>faP58ueF</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6wqBnbYe</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pUsFoIm2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
         <v>251</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6BxQEhhJ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BULGARIA - PARVA LIGA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL11" t="n">
         <v>151</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="AM11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>K4qymNjt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22:15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OSlDwjIG</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DENMARK - SUPERLIGA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Randers FC</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nordsjaelland</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>13</v>
+      </c>
+      <c r="X13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>lrv5pa42</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ECUADOR - LIGA PRO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Imbabura</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tecnico U.</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>d6KN1wQE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Y5lMvPwo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>13</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>8O4sn7oB</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Gl8kpoGN</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>23</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pbRMNv36</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Metta</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>RFS</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W19" t="n">
+        <v>28</v>
+      </c>
+      <c r="X19" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>400</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>tbdUsFKa</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NORWAY - ELITESERIEN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>23</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>12</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0SbJHVr2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>E5ugXK3D</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Alianza Atl.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Los Chankas</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>17</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>fR1WTocL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Comerciantes Unidos</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>AD Tarma</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>10</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>hxCBKsK7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cusco</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Grau</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>6FrwUX66</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tychy</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Pruszkow</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8</v>
+      </c>
+      <c r="X25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WQFk4C6e</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W26" t="n">
+        <v>19</v>
+      </c>
+      <c r="X26" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>fXd6EqHd</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8</v>
+      </c>
+      <c r="X27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>b7I8pNte</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>FC Botosani</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>U. Cluj</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>48PanqCr</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Farul Constanta</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Univ. Craiova</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>10</v>
+      </c>
+      <c r="X29" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4hsPjQBF</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Tanjong Pagar</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Balestier Khalsa</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>9</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>34</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P30" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R30" t="n">
+        <v>9</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="T30" t="n">
+        <v>10</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>67</v>
+      </c>
+      <c r="X30" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>nqew2rm2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Racing Club Ferrol</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>je2YYz6p</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Vasteras SK</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N32" t="n">
+        <v>15</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>8</v>
+      </c>
+      <c r="X32" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Uo1xYfLj</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N33" t="n">
+        <v>15</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W33" t="n">
+        <v>8</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>zZCRIqKc</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Oddevold</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Skovde AIK</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>12</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7</v>
+      </c>
+      <c r="X34" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ve5Ok7BM</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>OK8mlfzI</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>23</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W36" t="n">
+        <v>13</v>
+      </c>
+      <c r="X36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>xQiOD6C7</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Erokspor</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7</v>
+      </c>
+      <c r="X37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>GAw0YMbl</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N38" t="n">
+        <v>15</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W38" t="n">
+        <v>10</v>
+      </c>
+      <c r="X38" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CC5M2P9d</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>21:50</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD39" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-28.xlsx
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2597,10 +2597,10 @@
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2609,13 +2609,13 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
         <v>6.5</v>
@@ -2636,13 +2636,13 @@
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
         <v>201</v>
@@ -2651,7 +2651,7 @@
         <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
@@ -2669,13 +2669,13 @@
         <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2687,13 +2687,13 @@
         <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
         <v>34</v>
@@ -2702,10 +2702,10 @@
         <v>41</v>
       </c>
       <c r="AZ12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA12" t="n">
         <v>151</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>201</v>
       </c>
       <c r="BB12" t="n">
         <v>501</v>
